--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +549,10 @@
         <v>11.673104</v>
       </c>
       <c r="I2">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J2">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>1.441675036416</v>
+        <v>1.043126083096</v>
       </c>
       <c r="R2">
-        <v>8.650050218496</v>
+        <v>6.258756498576</v>
       </c>
       <c r="S2">
-        <v>0.0003027007386973207</v>
+        <v>1.800091592986937E-05</v>
       </c>
       <c r="T2">
-        <v>0.000201910792184345</v>
+        <v>1.20176939465606E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +611,10 @@
         <v>11.673104</v>
       </c>
       <c r="I3">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J3">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,10 +629,10 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
         <v>0.05279096433422222</v>
@@ -638,10 +641,10 @@
         <v>0.475118679008</v>
       </c>
       <c r="S3">
-        <v>1.10842343086129E-05</v>
+        <v>9.109979380600059E-07</v>
       </c>
       <c r="T3">
-        <v>1.109029270777628E-05</v>
+        <v>9.122947783495678E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +673,10 @@
         <v>11.673104</v>
       </c>
       <c r="I4">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J4">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>485.0329043404996</v>
+        <v>624.0370451867911</v>
       </c>
       <c r="R4">
-        <v>4365.296139064496</v>
+        <v>5616.33340668112</v>
       </c>
       <c r="S4">
-        <v>0.1018397452461754</v>
+        <v>0.01076882130508255</v>
       </c>
       <c r="T4">
-        <v>0.1018954086154457</v>
+        <v>0.01078415113268816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,40 +735,40 @@
         <v>11.673104</v>
       </c>
       <c r="I5">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J5">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>1.603796292814222</v>
+        <v>2.377881323424</v>
       </c>
       <c r="R5">
-        <v>14.434166635328</v>
+        <v>14.267287940544</v>
       </c>
       <c r="S5">
-        <v>0.0003367404652866622</v>
+        <v>4.103438931094453E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003369245202332077</v>
+        <v>2.739520221883107E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -794,10 +797,10 @@
         <v>11.673104</v>
       </c>
       <c r="I6">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J6">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>391.5620610191929</v>
+        <v>741.6480543497618</v>
       </c>
       <c r="R6">
-        <v>3524.058549172736</v>
+        <v>6674.832489147856</v>
       </c>
       <c r="S6">
-        <v>0.08221417595674725</v>
+        <v>0.01279839943823224</v>
       </c>
       <c r="T6">
-        <v>0.08225911242064422</v>
+        <v>0.01281661844767232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>9.975766999999999</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H7">
-        <v>29.927301</v>
+        <v>11.673104</v>
       </c>
       <c r="I7">
-        <v>0.4735420476567405</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J7">
-        <v>0.4735420476567405</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>3.696141382704</v>
+        <v>425.60831733688</v>
       </c>
       <c r="R7">
-        <v>22.176848296224</v>
+        <v>3830.47485603192</v>
       </c>
       <c r="S7">
-        <v>0.0007760588888711231</v>
+        <v>0.007344595886908964</v>
       </c>
       <c r="T7">
-        <v>0.0005176553770830227</v>
+        <v>0.007355051199109754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>46.51592366666667</v>
+      </c>
+      <c r="H8">
+        <v>139.547771</v>
+      </c>
+      <c r="I8">
+        <v>0.3702563158262584</v>
+      </c>
+      <c r="J8">
+        <v>0.3705478062871626</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>9.975766999999999</v>
-      </c>
-      <c r="H8">
-        <v>29.927301</v>
-      </c>
-      <c r="I8">
-        <v>0.4735420476567405</v>
-      </c>
-      <c r="J8">
-        <v>0.4735420476567405</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.1353445561446666</v>
+        <v>12.4701981382165</v>
       </c>
       <c r="R8">
-        <v>1.218101005302</v>
+        <v>74.821188829299</v>
       </c>
       <c r="S8">
-        <v>2.841756712767958E-05</v>
+        <v>0.0002151944927391774</v>
       </c>
       <c r="T8">
-        <v>2.843309954607838E-05</v>
+        <v>0.0001436672202014755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H9">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I9">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J9">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>1243.518923767178</v>
+        <v>0.6310970416935556</v>
       </c>
       <c r="R9">
-        <v>11191.6703139046</v>
+        <v>5.679873375242001</v>
       </c>
       <c r="S9">
-        <v>0.2610949675206878</v>
+        <v>1.089065356068702E-05</v>
       </c>
       <c r="T9">
-        <v>0.2612376762986465</v>
+        <v>1.090615682115239E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H10">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I10">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J10">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>4.111785040014666</v>
+        <v>7460.139023625849</v>
       </c>
       <c r="R10">
-        <v>37.006065360132</v>
+        <v>67141.25121263265</v>
       </c>
       <c r="S10">
-        <v>0.0008633293478336173</v>
+        <v>0.1287373957622224</v>
       </c>
       <c r="T10">
-        <v>0.0008638012247042258</v>
+        <v>0.128920658352205</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H11">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I11">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J11">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>1003.880001437643</v>
+        <v>28.42671823932601</v>
       </c>
       <c r="R11">
-        <v>9034.920012938783</v>
+        <v>170.560309435956</v>
       </c>
       <c r="S11">
-        <v>0.2107792743322203</v>
+        <v>0.0004905514045525968</v>
       </c>
       <c r="T11">
-        <v>0.2108944816567606</v>
+        <v>0.0003274998154502976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01522366666666666</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H12">
-        <v>0.045671</v>
+        <v>139.547771</v>
       </c>
       <c r="I12">
-        <v>0.0007226558405160222</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J12">
-        <v>0.0007226558405160222</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>0.005640551184</v>
+        <v>8866.136449310838</v>
       </c>
       <c r="R12">
-        <v>0.033843307104</v>
+        <v>79795.22804379753</v>
       </c>
       <c r="S12">
-        <v>1.184316137082761E-06</v>
+        <v>0.1530002743034725</v>
       </c>
       <c r="T12">
-        <v>7.899756388576013E-07</v>
+        <v>0.1532180760258927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01522366666666666</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H13">
-        <v>0.045671</v>
+        <v>139.547771</v>
       </c>
       <c r="I13">
-        <v>0.0007226558405160222</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J13">
-        <v>0.0007226558405160222</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.0002065445602222222</v>
+        <v>5087.994761583745</v>
       </c>
       <c r="R13">
-        <v>0.001858901042</v>
+        <v>45791.95285425371</v>
       </c>
       <c r="S13">
-        <v>4.336704831111413E-08</v>
+        <v>0.08780200920971098</v>
       </c>
       <c r="T13">
-        <v>4.339075178777216E-08</v>
+        <v>0.08792699871659186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H14">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I14">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J14">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>1.897690432136556</v>
+        <v>0.07948263085575</v>
       </c>
       <c r="R14">
-        <v>17.079213889229</v>
+        <v>0.317930523423</v>
       </c>
       <c r="S14">
-        <v>0.0003984478340241016</v>
+        <v>1.371608072221431E-06</v>
       </c>
       <c r="T14">
-        <v>0.0003986656168638624</v>
+        <v>6.104713815974052E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2964835</v>
+      </c>
+      <c r="H15">
+        <v>0.592967</v>
+      </c>
+      <c r="I15">
+        <v>0.002359942139382673</v>
+      </c>
+      <c r="J15">
+        <v>0.001574533362132169</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G15">
-        <v>0.01522366666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.045671</v>
-      </c>
-      <c r="I15">
-        <v>0.0007226558405160222</v>
-      </c>
-      <c r="J15">
-        <v>0.0007226558405160222</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>0.006274850330222221</v>
+        <v>0.004022490472333334</v>
       </c>
       <c r="R15">
-        <v>0.05647365297199999</v>
+        <v>0.024134942834</v>
       </c>
       <c r="S15">
-        <v>1.317496510791572E-06</v>
+        <v>6.941491924568146E-08</v>
       </c>
       <c r="T15">
-        <v>1.318216625464043E-06</v>
+        <v>4.634248935275555E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H16">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I16">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J16">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,184 +1429,184 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>1.531985912984889</v>
+        <v>47.54948314175167</v>
       </c>
       <c r="R16">
-        <v>13.787873216864</v>
+        <v>285.29689885051</v>
       </c>
       <c r="S16">
-        <v>0.0003216628267957352</v>
+        <v>0.0008205472592565207</v>
       </c>
       <c r="T16">
-        <v>0.0003218386406360504</v>
+        <v>0.0005478102263713834</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>7.184249666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H17">
-        <v>21.552749</v>
+        <v>0.592967</v>
       </c>
       <c r="I17">
-        <v>0.3410308498615283</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J17">
-        <v>0.3410308498615283</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>2.661850712496</v>
+        <v>0.181186403553</v>
       </c>
       <c r="R17">
-        <v>15.971104274976</v>
+        <v>0.7247456142120001</v>
       </c>
       <c r="S17">
-        <v>0.0005588944502899947</v>
+        <v>3.126679766565454E-06</v>
       </c>
       <c r="T17">
-        <v>0.0003727999531521649</v>
+        <v>1.391613650841593E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>7.184249666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H18">
-        <v>21.552749</v>
+        <v>0.592967</v>
       </c>
       <c r="I18">
-        <v>0.3410308498615283</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J18">
-        <v>0.3410308498615283</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.09747110997755554</v>
+        <v>56.51103877472717</v>
       </c>
       <c r="R18">
-        <v>0.8772399897979999</v>
+        <v>339.066232648363</v>
       </c>
       <c r="S18">
-        <v>2.046548372315729E-05</v>
+        <v>0.0009751941539744175</v>
       </c>
       <c r="T18">
-        <v>2.047666970732313E-05</v>
+        <v>0.0006510549200162111</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>7.184249666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H19">
-        <v>21.552749</v>
+        <v>0.592967</v>
       </c>
       <c r="I19">
-        <v>0.3410308498615283</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J19">
-        <v>0.3410308498615283</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>895.5452160789279</v>
+        <v>32.4298944530475</v>
       </c>
       <c r="R19">
-        <v>8059.906944710351</v>
+        <v>194.579366718285</v>
       </c>
       <c r="S19">
-        <v>0.1880328032299517</v>
+        <v>0.0005596330233937024</v>
       </c>
       <c r="T19">
-        <v>0.1881355778326946</v>
+        <v>0.0003736197882227823</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.184249666666666</v>
+        <v>71.35859699999999</v>
       </c>
       <c r="H20">
-        <v>21.552749</v>
+        <v>214.075791</v>
       </c>
       <c r="I20">
-        <v>0.3410308498615283</v>
+        <v>0.5679984217250741</v>
       </c>
       <c r="J20">
-        <v>0.3410308498615283</v>
+        <v>0.5684455879573963</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>2.961184869607556</v>
+        <v>19.1301337974465</v>
       </c>
       <c r="R20">
-        <v>26.650663826468</v>
+        <v>114.780802784679</v>
       </c>
       <c r="S20">
-        <v>0.0006217440302482221</v>
+        <v>0.0003301230175291238</v>
       </c>
       <c r="T20">
-        <v>0.0006220838618872706</v>
+        <v>0.000220395306818638</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H21">
+        <v>214.075791</v>
+      </c>
+      <c r="I21">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J21">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.040702</v>
+      </c>
+      <c r="O21">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P21">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.9681458716979999</v>
+      </c>
+      <c r="R21">
+        <v>8.713312845281999</v>
+      </c>
+      <c r="S21">
+        <v>1.670700476836022E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.673078782647301E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H22">
+        <v>214.075791</v>
+      </c>
+      <c r="I22">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J22">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N22">
+        <v>481.13453</v>
+      </c>
+      <c r="O22">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P22">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q22">
+        <v>11444.36167635147</v>
+      </c>
+      <c r="R22">
+        <v>102999.2550871632</v>
+      </c>
+      <c r="S22">
+        <v>0.1974919386500112</v>
+      </c>
+      <c r="T22">
+        <v>0.1977730759525284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H23">
+        <v>214.075791</v>
+      </c>
+      <c r="I23">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J23">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.222236</v>
+      </c>
+      <c r="O23">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P23">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q23">
+        <v>43.60852308144599</v>
+      </c>
+      <c r="R23">
+        <v>261.651138488676</v>
+      </c>
+      <c r="S23">
+        <v>0.0007525392860324377</v>
+      </c>
+      <c r="T23">
+        <v>0.0005024070362605539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H24">
+        <v>214.075791</v>
+      </c>
+      <c r="I24">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J24">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N24">
+        <v>571.812989</v>
+      </c>
+      <c r="O24">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P24">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q24">
+        <v>13601.25754713881</v>
+      </c>
+      <c r="R24">
+        <v>122411.3179242493</v>
+      </c>
+      <c r="S24">
+        <v>0.2347128478657882</v>
+      </c>
+      <c r="T24">
+        <v>0.2350469705513327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H25">
+        <v>214.075791</v>
+      </c>
+      <c r="I25">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J25">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>109.381785</v>
+      </c>
+      <c r="N25">
+        <v>328.145355</v>
+      </c>
+      <c r="O25">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P25">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q25">
+        <v>7805.330714955643</v>
+      </c>
+      <c r="R25">
+        <v>70247.9764346008</v>
+      </c>
+      <c r="S25">
+        <v>0.1346942659009448</v>
+      </c>
+      <c r="T25">
+        <v>0.1348860083226294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.569643</v>
+      </c>
+      <c r="H26">
+        <v>10.708929</v>
+      </c>
+      <c r="I26">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J26">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2680845</v>
+      </c>
+      <c r="N26">
+        <v>0.536169</v>
+      </c>
+      <c r="O26">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P26">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q26">
+        <v>0.9569659588334999</v>
+      </c>
+      <c r="R26">
+        <v>5.741795753001</v>
+      </c>
+      <c r="S26">
+        <v>1.651407634404183E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.102505650745913E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.569643</v>
+      </c>
+      <c r="H27">
+        <v>10.708929</v>
+      </c>
+      <c r="I27">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J27">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.040702</v>
+      </c>
+      <c r="O27">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P27">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.048430536462</v>
+      </c>
+      <c r="R27">
+        <v>0.435874828158</v>
+      </c>
+      <c r="S27">
+        <v>8.357513338209786E-07</v>
+      </c>
+      <c r="T27">
+        <v>8.369410577012128E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.569643</v>
+      </c>
+      <c r="H28">
+        <v>10.708929</v>
+      </c>
+      <c r="I28">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J28">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N28">
+        <v>481.13453</v>
+      </c>
+      <c r="O28">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P28">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q28">
+        <v>572.4928356909301</v>
+      </c>
+      <c r="R28">
+        <v>5152.43552121837</v>
+      </c>
+      <c r="S28">
+        <v>0.009879338243693914</v>
+      </c>
+      <c r="T28">
+        <v>0.009893401858256988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.569643</v>
+      </c>
+      <c r="H29">
+        <v>10.708929</v>
+      </c>
+      <c r="I29">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J29">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.222236</v>
+      </c>
+      <c r="O29">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P29">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q29">
+        <v>2.181473090874</v>
+      </c>
+      <c r="R29">
+        <v>13.088838545244</v>
+      </c>
+      <c r="S29">
+        <v>3.764503097798698E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.513241340967274E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.184249666666666</v>
-      </c>
-      <c r="H21">
-        <v>21.552749</v>
-      </c>
-      <c r="I21">
-        <v>0.3410308498615283</v>
-      </c>
-      <c r="J21">
-        <v>0.3410308498615283</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>100.6318613333333</v>
-      </c>
-      <c r="N21">
-        <v>301.895584</v>
-      </c>
-      <c r="O21">
-        <v>0.4451120557830785</v>
-      </c>
-      <c r="P21">
-        <v>0.4453553442621278</v>
-      </c>
-      <c r="Q21">
-        <v>722.9644162400461</v>
-      </c>
-      <c r="R21">
-        <v>6506.679746160416</v>
-      </c>
-      <c r="S21">
-        <v>0.1517969426673152</v>
-      </c>
-      <c r="T21">
-        <v>0.1518799115440869</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.569643</v>
+      </c>
+      <c r="H30">
+        <v>10.708929</v>
+      </c>
+      <c r="I30">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J30">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N30">
+        <v>571.812989</v>
+      </c>
+      <c r="O30">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P30">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q30">
+        <v>680.389411164309</v>
+      </c>
+      <c r="R30">
+        <v>6123.504700478781</v>
+      </c>
+      <c r="S30">
+        <v>0.01174127728988528</v>
+      </c>
+      <c r="T30">
+        <v>0.0117579914456526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.569643</v>
+      </c>
+      <c r="H31">
+        <v>10.708929</v>
+      </c>
+      <c r="I31">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J31">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>109.381785</v>
+      </c>
+      <c r="N31">
+        <v>328.145355</v>
+      </c>
+      <c r="O31">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P31">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q31">
+        <v>390.453923152755</v>
+      </c>
+      <c r="R31">
+        <v>3514.085308374795</v>
+      </c>
+      <c r="S31">
+        <v>0.006737946983647203</v>
+      </c>
+      <c r="T31">
+        <v>0.006747538708010416</v>
       </c>
     </row>
   </sheetData>
